--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/seguranca/cv121271a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/seguranca/cv121271a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>unnamed: 1_level_0</t>
   </si>
@@ -25,9 +25,6 @@
     <t>não economicamente ativas</t>
   </si>
   <si>
-    <t>unnamed: 1_level_1</t>
-  </si>
-  <si>
     <t>total</t>
   </si>
   <si>
@@ -37,22 +34,13 @@
     <t>condição de ocupação na semana de referência.1</t>
   </si>
   <si>
-    <t>unnamed: 5_level_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">               brasil</t>
   </si>
   <si>
-    <t>situação do domicílio</t>
-  </si>
-  <si>
     <t>urbana</t>
   </si>
   <si>
     <t>rural</t>
-  </si>
-  <si>
-    <t>grandes regiões e unidades da federação</t>
   </si>
   <si>
     <t>norte</t>
@@ -503,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -529,21 +517,21 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>0.6928770063293205</v>
@@ -563,671 +551,661 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0.8587980411850094</v>
+      </c>
+      <c r="C5">
+        <v>0.9062781403856053</v>
+      </c>
+      <c r="D5">
+        <v>0.9273640721744342</v>
+      </c>
+      <c r="E5">
+        <v>1.88080155490512</v>
+      </c>
+      <c r="F5">
+        <v>0.977233540765416</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>0.8587980411850094</v>
+        <v>3.25391337464394</v>
       </c>
       <c r="C6">
-        <v>0.9062781403856053</v>
+        <v>3.278593934573381</v>
       </c>
       <c r="D6">
-        <v>0.9273640721744342</v>
+        <v>3.317986388410257</v>
       </c>
       <c r="E6">
-        <v>1.88080155490512</v>
+        <v>6.903597009533398</v>
       </c>
       <c r="F6">
-        <v>0.977233540765416</v>
+        <v>3.797748248023477</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>3.25391337464394</v>
+        <v>3.476844813349684</v>
       </c>
       <c r="C7">
-        <v>3.278593934573381</v>
+        <v>3.736529613086614</v>
       </c>
       <c r="D7">
-        <v>3.317986388410257</v>
+        <v>3.862434977799398</v>
       </c>
       <c r="E7">
-        <v>6.903597009533398</v>
+        <v>4.977527545761298</v>
       </c>
       <c r="F7">
-        <v>3.797748248023477</v>
+        <v>3.891787809416753</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>3.315533400930749</v>
+      </c>
+      <c r="C8">
+        <v>5.347495205050268</v>
+      </c>
+      <c r="D8">
+        <v>5.634676589186767</v>
+      </c>
+      <c r="E8">
+        <v>11.26316779838255</v>
+      </c>
+      <c r="F8">
+        <v>4.832048805979758</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>3.476844813349684</v>
+        <v>10.76603758468494</v>
       </c>
       <c r="C9">
-        <v>3.736529613086614</v>
+        <v>12.01927467026491</v>
       </c>
       <c r="D9">
-        <v>3.862434977799398</v>
+        <v>12.55502328578631</v>
       </c>
       <c r="E9">
-        <v>4.977527545761298</v>
+        <v>17.703231879042</v>
       </c>
       <c r="F9">
-        <v>3.891787809416753</v>
+        <v>9.880442273398303</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>3.315533400930749</v>
+        <v>4.418281608947436</v>
       </c>
       <c r="C10">
-        <v>5.347495205050268</v>
+        <v>3.931827654832047</v>
       </c>
       <c r="D10">
-        <v>5.634676589186767</v>
+        <v>3.73289462172737</v>
       </c>
       <c r="E10">
-        <v>11.26316779838255</v>
+        <v>12.08942569852233</v>
       </c>
       <c r="F10">
-        <v>4.832048805979758</v>
+        <v>6.968324512121219</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11">
-        <v>10.76603758468494</v>
+        <v>4.756212922640313</v>
       </c>
       <c r="C11">
-        <v>12.01927467026491</v>
+        <v>5.068389422617739</v>
       </c>
       <c r="D11">
-        <v>12.55502328578631</v>
+        <v>4.825847188703372</v>
       </c>
       <c r="E11">
-        <v>17.703231879042</v>
+        <v>13.4917547212189</v>
       </c>
       <c r="F11">
-        <v>9.880442273398303</v>
+        <v>6.102423673014748</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12">
-        <v>4.418281608947436</v>
+        <v>8.708223025440608</v>
       </c>
       <c r="C12">
-        <v>3.931827654832047</v>
+        <v>9.704798460191331</v>
       </c>
       <c r="D12">
-        <v>3.73289462172737</v>
+        <v>10.05323639070305</v>
       </c>
       <c r="E12">
-        <v>12.08942569852233</v>
+        <v>9.025822946697904</v>
       </c>
       <c r="F12">
-        <v>6.968324512121219</v>
+        <v>8.432264019693278</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13">
-        <v>4.756212922640313</v>
+        <v>8.663353080183908</v>
       </c>
       <c r="C13">
-        <v>5.068389422617739</v>
+        <v>6.135622452737853</v>
       </c>
       <c r="D13">
-        <v>4.825847188703372</v>
+        <v>6.268281562443988</v>
       </c>
       <c r="E13">
-        <v>13.4917547212189</v>
+        <v>13.93792268158037</v>
       </c>
       <c r="F13">
-        <v>6.102423673014748</v>
+        <v>14.23708629645516</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14">
-        <v>8.708223025440608</v>
+        <v>3.401724653742177</v>
       </c>
       <c r="C14">
-        <v>9.704798460191331</v>
+        <v>4.24073995607195</v>
       </c>
       <c r="D14">
-        <v>10.05323639070305</v>
+        <v>4.409509611587022</v>
       </c>
       <c r="E14">
-        <v>9.025822946697904</v>
+        <v>10.56816790334575</v>
       </c>
       <c r="F14">
-        <v>8.432264019693278</v>
+        <v>3.279055803610972</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B15">
-        <v>8.663353080183908</v>
+        <v>1.653280897927568</v>
       </c>
       <c r="C15">
-        <v>6.135622452737853</v>
+        <v>1.8082518010226</v>
       </c>
       <c r="D15">
-        <v>6.268281562443988</v>
+        <v>1.975335665667237</v>
       </c>
       <c r="E15">
-        <v>13.93792268158037</v>
+        <v>3.361900697094549</v>
       </c>
       <c r="F15">
-        <v>14.23708629645516</v>
+        <v>1.979451556780556</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16">
-        <v>3.401724653742177</v>
+        <v>7.394463318254337</v>
       </c>
       <c r="C16">
-        <v>4.24073995607195</v>
+        <v>7.698794996580864</v>
       </c>
       <c r="D16">
-        <v>4.409509611587022</v>
+        <v>8.538660422227629</v>
       </c>
       <c r="E16">
-        <v>10.56816790334575</v>
+        <v>18.18969831894687</v>
       </c>
       <c r="F16">
-        <v>3.279055803610972</v>
+        <v>8.820722970477592</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17">
-        <v>1.653280897927568</v>
+        <v>5.896780275014431</v>
       </c>
       <c r="C17">
-        <v>1.8082518010226</v>
+        <v>7.258689303386231</v>
       </c>
       <c r="D17">
-        <v>1.975335665667237</v>
+        <v>7.255634593299054</v>
       </c>
       <c r="E17">
-        <v>3.361900697094549</v>
+        <v>17.06390325000109</v>
       </c>
       <c r="F17">
-        <v>1.979451556780556</v>
+        <v>5.553464328475624</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B18">
-        <v>7.394463318254337</v>
+        <v>4.10944186047277</v>
       </c>
       <c r="C18">
-        <v>7.698794996580864</v>
+        <v>4.16342218763612</v>
       </c>
       <c r="D18">
-        <v>8.538660422227629</v>
+        <v>4.461659336757716</v>
       </c>
       <c r="E18">
-        <v>18.18969831894687</v>
+        <v>6.880028233931329</v>
       </c>
       <c r="F18">
-        <v>8.820722970477592</v>
+        <v>4.860369257103926</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19">
-        <v>5.896780275014431</v>
+        <v>9.232800347021263</v>
       </c>
       <c r="C19">
-        <v>7.258689303386231</v>
+        <v>11.10280383446258</v>
       </c>
       <c r="D19">
-        <v>7.255634593299054</v>
+        <v>11.95470135022352</v>
       </c>
       <c r="E19">
-        <v>17.06390325000109</v>
+        <v>13.02391997077282</v>
       </c>
       <c r="F19">
-        <v>5.553464328475624</v>
+        <v>7.775794764217061</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B20">
-        <v>4.10944186047277</v>
+        <v>5.58828201195286</v>
       </c>
       <c r="C20">
-        <v>4.16342218763612</v>
+        <v>4.943124158647892</v>
       </c>
       <c r="D20">
-        <v>4.461659336757716</v>
+        <v>5.695158208994709</v>
       </c>
       <c r="E20">
-        <v>6.880028233931329</v>
+        <v>14.68577019724521</v>
       </c>
       <c r="F20">
-        <v>4.860369257103926</v>
+        <v>6.528685026038962</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B21">
-        <v>9.232800347021263</v>
+        <v>2.843305541804166</v>
       </c>
       <c r="C21">
-        <v>11.10280383446258</v>
+        <v>4.370089104603706</v>
       </c>
       <c r="D21">
-        <v>11.95470135022352</v>
+        <v>5.005914680609825</v>
       </c>
       <c r="E21">
-        <v>13.02391997077282</v>
+        <v>6.63287135253882</v>
       </c>
       <c r="F21">
-        <v>7.775794764217061</v>
+        <v>2.697826731327333</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B22">
-        <v>5.58828201195286</v>
+        <v>8.573679076448991</v>
       </c>
       <c r="C22">
-        <v>4.943124158647892</v>
+        <v>7.735413584791212</v>
       </c>
       <c r="D22">
-        <v>5.695158208994709</v>
+        <v>8.503694783331522</v>
       </c>
       <c r="E22">
-        <v>14.68577019724521</v>
+        <v>9.20041384500883</v>
       </c>
       <c r="F22">
-        <v>6.528685026038962</v>
+        <v>9.70773258441614</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B23">
-        <v>2.843305541804166</v>
+        <v>5.924223609358608</v>
       </c>
       <c r="C23">
-        <v>4.370089104603706</v>
+        <v>7.017480774955186</v>
       </c>
       <c r="D23">
-        <v>5.005914680609825</v>
+        <v>7.151695188330465</v>
       </c>
       <c r="E23">
-        <v>6.63287135253882</v>
+        <v>12.65041263781097</v>
       </c>
       <c r="F23">
-        <v>2.697826731327333</v>
+        <v>6.290157022896685</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B24">
-        <v>8.573679076448991</v>
+        <v>2.740742423175238</v>
       </c>
       <c r="C24">
-        <v>7.735413584791212</v>
+        <v>2.896339411303872</v>
       </c>
       <c r="D24">
-        <v>8.503694783331522</v>
+        <v>3.156256554053646</v>
       </c>
       <c r="E24">
-        <v>9.20041384500883</v>
+        <v>6.315818297271308</v>
       </c>
       <c r="F24">
-        <v>9.70773258441614</v>
+        <v>3.882586158504864</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B25">
-        <v>5.924223609358608</v>
+        <v>0.9531187530088721</v>
       </c>
       <c r="C25">
-        <v>7.017480774955186</v>
+        <v>1.030145403734567</v>
       </c>
       <c r="D25">
-        <v>7.151695188330465</v>
+        <v>1.082457556829374</v>
       </c>
       <c r="E25">
-        <v>12.65041263781097</v>
+        <v>2.924797914002373</v>
       </c>
       <c r="F25">
-        <v>6.290157022896685</v>
+        <v>1.162603804397829</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B26">
-        <v>2.740742423175238</v>
+        <v>1.894990983554854</v>
       </c>
       <c r="C26">
-        <v>2.896339411303872</v>
+        <v>2.036853543786379</v>
       </c>
       <c r="D26">
-        <v>3.156256554053646</v>
+        <v>2.053536543766322</v>
       </c>
       <c r="E26">
-        <v>6.315818297271308</v>
+        <v>6.326480051116985</v>
       </c>
       <c r="F26">
-        <v>3.882586158504864</v>
+        <v>2.13642047722506</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B27">
-        <v>0.9531187530088721</v>
+        <v>4.038166149009035</v>
       </c>
       <c r="C27">
-        <v>1.030145403734567</v>
+        <v>4.815870929455344</v>
       </c>
       <c r="D27">
-        <v>1.082457556829374</v>
+        <v>5.467626649524609</v>
       </c>
       <c r="E27">
-        <v>2.924797914002373</v>
+        <v>13.84766384029745</v>
       </c>
       <c r="F27">
-        <v>1.162603804397829</v>
+        <v>4.575174372931586</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B28">
-        <v>1.894990983554854</v>
+        <v>2.335418274795894</v>
       </c>
       <c r="C28">
-        <v>2.036853543786379</v>
+        <v>2.492957591812154</v>
       </c>
       <c r="D28">
-        <v>2.053536543766322</v>
+        <v>2.498214583495808</v>
       </c>
       <c r="E28">
-        <v>6.326480051116985</v>
+        <v>5.385264727015917</v>
       </c>
       <c r="F28">
-        <v>2.13642047722506</v>
+        <v>2.659124013234125</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B29">
-        <v>4.038166149009035</v>
+        <v>1.304069382914054</v>
       </c>
       <c r="C29">
-        <v>4.815870929455344</v>
+        <v>1.400653556649899</v>
       </c>
       <c r="D29">
-        <v>5.467626649524609</v>
+        <v>1.517598077483243</v>
       </c>
       <c r="E29">
-        <v>13.84766384029745</v>
+        <v>4.124376780375219</v>
       </c>
       <c r="F29">
-        <v>4.575174372931586</v>
+        <v>1.706944357698319</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B30">
-        <v>2.335418274795894</v>
+        <v>1.385022388995266</v>
       </c>
       <c r="C30">
-        <v>2.492957591812154</v>
+        <v>1.668866057240794</v>
       </c>
       <c r="D30">
-        <v>2.498214583495808</v>
+        <v>1.836322834112822</v>
       </c>
       <c r="E30">
-        <v>5.385264727015917</v>
+        <v>3.730521545721106</v>
       </c>
       <c r="F30">
-        <v>2.659124013234125</v>
+        <v>1.598401229706527</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B31">
-        <v>1.304069382914054</v>
+        <v>2.17783554277198</v>
       </c>
       <c r="C31">
-        <v>1.400653556649899</v>
+        <v>2.461952023193745</v>
       </c>
       <c r="D31">
-        <v>1.517598077483243</v>
+        <v>2.652443768194973</v>
       </c>
       <c r="E31">
-        <v>4.124376780375219</v>
+        <v>5.620533043744684</v>
       </c>
       <c r="F31">
-        <v>1.706944357698319</v>
+        <v>2.724548301788548</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B32">
-        <v>1.385022388995266</v>
+        <v>3.733299083458498</v>
       </c>
       <c r="C32">
-        <v>1.668866057240794</v>
+        <v>4.73068449994328</v>
       </c>
       <c r="D32">
-        <v>1.836322834112822</v>
+        <v>5.234610985924194</v>
       </c>
       <c r="E32">
-        <v>3.730521545721106</v>
+        <v>7.814865375383969</v>
       </c>
       <c r="F32">
-        <v>1.598401229706527</v>
+        <v>3.121840971741345</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B33">
-        <v>2.17783554277198</v>
+        <v>1.693546907802575</v>
       </c>
       <c r="C33">
-        <v>2.461952023193745</v>
+        <v>1.873220332391815</v>
       </c>
       <c r="D33">
-        <v>2.652443768194973</v>
+        <v>2.058803637140445</v>
       </c>
       <c r="E33">
-        <v>5.620533043744684</v>
+        <v>6.281193964278664</v>
       </c>
       <c r="F33">
-        <v>2.724548301788548</v>
+        <v>2.530102656912007</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B34">
-        <v>3.733299083458498</v>
+        <v>1.405888871601273</v>
       </c>
       <c r="C34">
-        <v>4.73068449994328</v>
+        <v>1.755669539715809</v>
       </c>
       <c r="D34">
-        <v>5.234610985924194</v>
+        <v>1.814264280974766</v>
       </c>
       <c r="E34">
-        <v>7.814865375383969</v>
+        <v>4.451472040493614</v>
       </c>
       <c r="F34">
-        <v>3.121840971741345</v>
+        <v>2.145521955478342</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B35">
-        <v>1.693546907802575</v>
+        <v>3.061358952849435</v>
       </c>
       <c r="C35">
-        <v>1.873220332391815</v>
+        <v>3.187321899976405</v>
       </c>
       <c r="D35">
-        <v>2.058803637140445</v>
+        <v>3.327109222843011</v>
       </c>
       <c r="E35">
-        <v>6.281193964278664</v>
+        <v>9.107339563144278</v>
       </c>
       <c r="F35">
-        <v>2.530102656912007</v>
+        <v>4.568199376535243</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B36">
-        <v>1.405888871601273</v>
+        <v>2.862124415579702</v>
       </c>
       <c r="C36">
-        <v>1.755669539715809</v>
+        <v>4.631782089526018</v>
       </c>
       <c r="D36">
-        <v>1.814264280974766</v>
+        <v>4.669754512216808</v>
       </c>
       <c r="E36">
-        <v>4.451472040493614</v>
+        <v>12.36237251487711</v>
       </c>
       <c r="F36">
-        <v>2.145521955478342</v>
+        <v>4.400777362498175</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B37">
-        <v>3.061358952849435</v>
+        <v>2.190081720279117</v>
       </c>
       <c r="C37">
-        <v>3.187321899976405</v>
+        <v>2.636091450656857</v>
       </c>
       <c r="D37">
-        <v>3.327109222843011</v>
+        <v>2.76074739349615</v>
       </c>
       <c r="E37">
-        <v>9.107339563144278</v>
+        <v>7.106163717246525</v>
       </c>
       <c r="F37">
-        <v>4.568199376535243</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38">
-        <v>2.862124415579702</v>
-      </c>
-      <c r="C38">
-        <v>4.631782089526018</v>
-      </c>
-      <c r="D38">
-        <v>4.669754512216808</v>
-      </c>
-      <c r="E38">
-        <v>12.36237251487711</v>
-      </c>
-      <c r="F38">
-        <v>4.400777362498175</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39">
-        <v>2.190081720279117</v>
-      </c>
-      <c r="C39">
-        <v>2.636091450656857</v>
-      </c>
-      <c r="D39">
-        <v>2.76074739349615</v>
-      </c>
-      <c r="E39">
-        <v>7.106163717246525</v>
-      </c>
-      <c r="F39">
         <v>3.49566129799057</v>
       </c>
     </row>
